--- a/studios/studio4/recurrence.xlsx
+++ b/studios/studio4/recurrence.xlsx
@@ -1,19 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuhler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexteng/git/cse247-f18-students-teng.ming-che/studios/studio4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E8948E-99CD-1A4E-AF0E-611A379648B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$51</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,6 +109,2350 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2147483648</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4294967296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8589934592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17179869184</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34359738368</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>68719476736</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137438953472</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>274877906944</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>549755813888</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1099511627776</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2199023255552</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4398046511104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8796093022208</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17592186044416</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35184372088832</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70368744177664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140737488355328</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>281474976710656</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>562949953421312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E09B-714A-8F10-B4BDFF090447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1760025919"/>
+        <c:axId val="1759747455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1760025919"/>
+        <c:scaling>
+          <c:logBase val="5"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759747455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1759747455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760025919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2147483648</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4294967296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8589934592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17179869184</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34359738368</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>68719476736</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137438953472</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>274877906944</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>549755813888</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1099511627776</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2199023255552</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4398046511104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8796093022208</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17592186044416</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35184372088832</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70368744177664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140737488355328</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>281474976710656</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>562949953421312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>114688</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245760</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1114112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2359296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4980736</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10485760</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22020096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46137344</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96468992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201326592</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>419430400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>872415232</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1811939328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3758096384</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7784628224</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16106127360</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33285996544</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68719476736</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141733920768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>292057776128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>601295421440</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1236950581248</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2542620639232</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5222680231936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10720238370816</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21990232555520</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45079976738816</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92358976733184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>189115999977472</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>387028092977152</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>791648371998720</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1618481116086272</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3307330976350208</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6755399441055744</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3792273858822144E+16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.81474976710656E+16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1C6-CC49-B70B-AC7D6BE682B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1759335023"/>
+        <c:axId val="1759231359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1759335023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759231359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1759231359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759335023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C99679-9223-4048-8815-7583A31F0031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F0D0D0-78AB-724E-98EF-F5010321B03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,21 +2717,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>POWER(2,ROW()-2)</f>
         <v>1</v>
@@ -398,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A51" si="0">POWER(2,ROW()-2)</f>
         <v>2</v>
@@ -412,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -426,7 +2783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -440,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -454,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -468,7 +2825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -482,7 +2839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -496,7 +2853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>256</v>
@@ -510,7 +2867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>512</v>
@@ -524,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -538,7 +2895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -552,7 +2909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -566,7 +2923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -580,7 +2937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -594,7 +2951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -608,7 +2965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>65536</v>
@@ -622,7 +2979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>131072</v>
@@ -636,7 +2993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>262144</v>
@@ -650,7 +3007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>524288</v>
@@ -664,7 +3021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1048576</v>
@@ -678,7 +3035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2097152</v>
@@ -692,7 +3049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>4194304</v>
@@ -706,7 +3063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>8388608</v>
@@ -720,7 +3077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>16777216</v>
@@ -734,7 +3091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>33554432</v>
@@ -748,7 +3105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>67108864</v>
@@ -762,7 +3119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>134217728</v>
@@ -776,7 +3133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>268435456</v>
@@ -790,7 +3147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>536870912</v>
@@ -804,7 +3161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1073741824</v>
@@ -818,7 +3175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>2147483648</v>
@@ -832,7 +3189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>4294967296</v>
@@ -846,7 +3203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>8589934592</v>
@@ -860,7 +3217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>17179869184</v>
@@ -874,7 +3231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>34359738368</v>
@@ -888,7 +3245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>68719476736</v>
@@ -902,7 +3259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>137438953472</v>
@@ -916,7 +3273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>274877906944</v>
@@ -930,7 +3287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>549755813888</v>
@@ -944,7 +3301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>1099511627776</v>
@@ -958,7 +3315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>2199023255552</v>
@@ -972,7 +3329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>4398046511104</v>
@@ -986,7 +3343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>8796093022208</v>
@@ -1000,7 +3357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>17592186044416</v>
@@ -1014,7 +3371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>35184372088832</v>
@@ -1028,7 +3385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>70368744177664</v>
@@ -1042,7 +3399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>140737488355328</v>
@@ -1056,7 +3413,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>281474976710656</v>
@@ -1070,7 +3427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>562949953421312</v>
@@ -1087,5 +3444,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>